--- a/FrontEnd/Data/manuel_franco.xlsx
+++ b/FrontEnd/Data/manuel_franco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhernieevangelista/Desktop/ClassRepos/Off_to_the_Races/FrontEnd/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95ADAE5-5057-7847-A523-5C35152AAB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39434F09-078A-CA49-B05D-BC866901A870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="-19720" windowWidth="27640" windowHeight="15580" xr2:uid="{90E42F54-9498-874D-BA69-24750D7EC892}"/>
   </bookViews>
@@ -36,12 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="4">
   <si>
     <t>weight_carried</t>
   </si>
   <si>
     <t>race_date</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Manuel Franco</t>
   </si>
 </sst>
 </file>
@@ -394,1569 +400,2159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB2804-3372-4C49-A721-7AC78AD52139}">
-  <dimension ref="A1:B195"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
         <v>43466</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>120.642826552462</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
         <v>43469</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>120.421585160202</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>43470</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>120.60308343409901</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
         <v>43471</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>120.34603028912299</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
         <v>43475</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>123.901515151515</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
         <v>43476</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>124.25877903835701</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
         <v>43477</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>122.360865724381</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
         <v>43478</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>122.469009272816</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
         <v>43483</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>122.261807363332</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
         <v>43484</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>122.30684931506801</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
         <v>43485</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>122.41732283464501</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
         <v>43490</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>122.399205202312</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
         <v>43491</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>122.865121474448</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
         <v>43492</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>122.31016563819399</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
         <v>43497</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>122.76213358962001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
         <v>43498</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>122.231707317073</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
         <v>43499</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>120.26287395782199</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
         <v>43503</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>120.646678966789</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
         <v>43504</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>120.575159605339</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
         <v>43505</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>121.680249632892</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
         <v>43506</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>123.117527450183</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
         <v>43511</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>121.30844954881</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
         <v>43513</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>121.524317912218</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
         <v>43514</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>120.722460101206</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
         <v>43517</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>120.71337817638199</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
         <v>43518</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>120.497950819672</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1">
         <v>43519</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>120.263281617301</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1">
         <v>43520</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>120.992518703241</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1">
         <v>43524</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>123.399380804953</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1">
         <v>43525</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>119.356651376146</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1">
         <v>43527</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>120.655615696887</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1">
         <v>43532</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>123.17616126205</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1">
         <v>43533</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>119.97674418604601</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1">
         <v>43534</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>122.023896448722</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1">
         <v>43539</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>120.52908726178499</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1">
         <v>43540</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>120.179051383399</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1">
         <v>43541</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>120.97014424689699</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1">
         <v>43546</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>121.03036876355699</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1">
         <v>43547</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>119.18314763231101</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1">
         <v>43548</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>120.108152396558</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1">
         <v>43553</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>120.24485891917701</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1">
         <v>43555</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>120.10007468259801</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1">
         <v>43560</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>122.10237388724001</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1">
         <v>43561</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>121.61893852615501</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1">
         <v>43562</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>123.020869565217</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="1">
         <v>43565</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>122.902483343428</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1">
         <v>43566</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>119.115754283326</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1">
         <v>43567</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>122.142064372918</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="1">
         <v>43568</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>119.34074410163301</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1">
         <v>43569</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>118.271920482783</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1">
         <v>43572</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>120.90909090909</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1">
         <v>43573</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>122.198324022346</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="1">
         <v>43574</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>121.552390149686</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="1">
         <v>43575</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>121.24992481203</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="1">
         <v>43581</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>122.27167876975599</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="1">
         <v>43582</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>122.85</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="1">
         <v>43583</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>119.92563527653201</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="1">
         <v>43587</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="1">
         <v>43590</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>119.19917770671501</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="1">
         <v>43597</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>119.67366283006</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="1">
         <v>43601</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>120.20211299954001</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="1">
         <v>43603</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>121.101180976699</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="1">
         <v>43604</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>120.564971751412</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="1">
         <v>43608</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>121.05962264150899</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="1">
         <v>43609</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>120.485</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="1">
         <v>43610</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>120.570963238715</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="1">
         <v>43611</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>122.32136245834801</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="1">
         <v>43612</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>119.52038295243899</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="1">
         <v>43615</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>121.719822109275</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="1">
         <v>43616</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>121.94306418219399</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="1">
         <v>43618</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>120.771976558337</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="1">
         <v>43622</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>119.83162341581099</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="1">
         <v>43623</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>118.080711920529</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="1">
         <v>43624</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>119.11092985318101</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="1">
         <v>43625</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>120.821382007822</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="1">
         <v>43628</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>120.692610062893</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="1">
         <v>43629</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>119.655937846836</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="1">
         <v>43630</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>119.873455475074</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="1">
         <v>43631</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>120.88978736148501</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="1">
         <v>43632</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>118.492364990689</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="1">
         <v>43635</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>123.14553686934001</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="1">
         <v>43636</v>
       </c>
-      <c r="B83">
+      <c r="C83">
         <v>122.47046301224</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="1">
         <v>43637</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>122.325447570332</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="1">
         <v>43645</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>120.08121173058299</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="1">
         <v>43646</v>
       </c>
-      <c r="B86">
+      <c r="C86">
         <v>118.950704225352</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="1">
         <v>43649</v>
       </c>
-      <c r="B87">
+      <c r="C87">
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="1">
         <v>43650</v>
       </c>
-      <c r="B88">
+      <c r="C88">
         <v>118.07507331378299</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="1">
         <v>43651</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>121.410601265822</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="1">
         <v>43652</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>118.883559263121</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="1">
         <v>43653</v>
       </c>
-      <c r="B91">
+      <c r="C91">
         <v>121.13276231263301</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="1">
         <v>43657</v>
       </c>
-      <c r="B92">
+      <c r="C92">
         <v>120.946013031337</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="1">
         <v>43658</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>120.14016578749001</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="1">
         <v>43659</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>120.880446148483</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="1">
         <v>43660</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>119.381448177946</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="1">
         <v>43663</v>
       </c>
-      <c r="B96">
+      <c r="C96">
         <v>119.21593291404599</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="1">
         <v>43664</v>
       </c>
-      <c r="B97">
+      <c r="C97">
         <v>121.376427829698</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="1">
         <v>43665</v>
       </c>
-      <c r="B98">
+      <c r="C98">
         <v>121.20884520884501</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="1">
         <v>43667</v>
       </c>
-      <c r="B99">
+      <c r="C99">
         <v>120.44186046511599</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="1">
         <v>43670</v>
       </c>
-      <c r="B100">
+      <c r="C100">
         <v>119.955925563173</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="1">
         <v>43671</v>
       </c>
-      <c r="B101">
+      <c r="C101">
         <v>122.708933717579</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="1">
         <v>43672</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>121.8944</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="1">
         <v>43673</v>
       </c>
-      <c r="B103">
+      <c r="C103">
         <v>119.949189985272</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="1">
         <v>43674</v>
       </c>
-      <c r="B104">
+      <c r="C104">
         <v>119.355790645879</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="1">
         <v>43677</v>
       </c>
-      <c r="B105">
+      <c r="C105">
         <v>121.076569175156</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="1">
         <v>43678</v>
       </c>
-      <c r="B106">
+      <c r="C106">
         <v>120.743790849673</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="1">
         <v>43679</v>
       </c>
-      <c r="B107">
+      <c r="C107">
         <v>120.894793926247</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="1">
         <v>43680</v>
       </c>
-      <c r="B108">
+      <c r="C108">
         <v>121.344146685472</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="1">
         <v>43681</v>
       </c>
-      <c r="B109">
+      <c r="C109">
         <v>122.23084291187701</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="1">
         <v>43684</v>
       </c>
-      <c r="B110">
+      <c r="C110">
         <v>120.35131048386999</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="1">
         <v>43685</v>
       </c>
-      <c r="B111">
+      <c r="C111">
         <v>121.339836821567</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="1">
         <v>43686</v>
       </c>
-      <c r="B112">
+      <c r="C112">
         <v>120.642335766423</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="1">
         <v>43687</v>
       </c>
-      <c r="B113">
+      <c r="C113">
         <v>120.51662899580199</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" s="1">
         <v>43688</v>
       </c>
-      <c r="B114">
+      <c r="C114">
         <v>119.892557651991</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="1">
         <v>43691</v>
       </c>
-      <c r="B115">
+      <c r="C115">
         <v>120.645524599881</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" s="1">
         <v>43692</v>
       </c>
-      <c r="B116">
+      <c r="C116">
         <v>122.188711762171</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" s="1">
         <v>43693</v>
       </c>
-      <c r="B117">
+      <c r="C117">
         <v>120.993906567366</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" s="1">
         <v>43694</v>
       </c>
-      <c r="B118">
+      <c r="C118">
         <v>120.74386920980901</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" s="1">
         <v>43695</v>
       </c>
-      <c r="B119">
+      <c r="C119">
         <v>120.388535031847</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" s="1">
         <v>43698</v>
       </c>
-      <c r="B120">
+      <c r="C120">
         <v>118.357894736842</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" s="1">
         <v>43699</v>
       </c>
-      <c r="B121">
+      <c r="C121">
         <v>119.69422468354399</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" s="1">
         <v>43700</v>
       </c>
-      <c r="B122">
+      <c r="C122">
         <v>119.198630136986</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="1">
         <v>43701</v>
       </c>
-      <c r="B123">
+      <c r="C123">
         <v>118.62195727769399</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" s="1">
         <v>43702</v>
       </c>
-      <c r="B124">
+      <c r="C124">
         <v>121.782459578637</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" s="1">
         <v>43705</v>
       </c>
-      <c r="B125">
+      <c r="C125">
         <v>121.94389555398701</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" s="1">
         <v>43706</v>
       </c>
-      <c r="B126">
+      <c r="C126">
         <v>121.10985626283301</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" s="1">
         <v>43707</v>
       </c>
-      <c r="B127">
+      <c r="C127">
         <v>120.83820459290099</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" s="1">
         <v>43708</v>
       </c>
-      <c r="B128">
+      <c r="C128">
         <v>119.686321894635</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" s="1">
         <v>43709</v>
       </c>
-      <c r="B129">
+      <c r="C129">
         <v>120.391281785158</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" s="1">
         <v>43710</v>
       </c>
-      <c r="B130">
+      <c r="C130">
         <v>121.494964753272</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" s="1">
         <v>43714</v>
       </c>
-      <c r="B131">
+      <c r="C131">
         <v>119.571623465211</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" s="1">
         <v>43715</v>
       </c>
-      <c r="B132">
+      <c r="C132">
         <v>121.580740117746</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="1">
         <v>43716</v>
       </c>
-      <c r="B133">
+      <c r="C133">
         <v>119.45262522631199</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" s="1">
         <v>43719</v>
       </c>
-      <c r="B134">
+      <c r="C134">
         <v>120.726636475916</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="1">
         <v>43720</v>
       </c>
-      <c r="B135">
+      <c r="C135">
         <v>120.598823122187</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" s="1">
         <v>43721</v>
       </c>
-      <c r="B136">
+      <c r="C136">
         <v>120.839636913767</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" s="1">
         <v>43722</v>
       </c>
-      <c r="B137">
+      <c r="C137">
         <v>120.984598757092</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" s="1">
         <v>43723</v>
       </c>
-      <c r="B138">
+      <c r="C138">
         <v>121.093910936079</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" s="1">
         <v>43726</v>
       </c>
-      <c r="B139">
+      <c r="C139">
         <v>119.660563380281</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" s="1">
         <v>43727</v>
       </c>
-      <c r="B140">
+      <c r="C140">
         <v>121.164705882352</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" s="1">
         <v>43728</v>
       </c>
-      <c r="B141">
+      <c r="C141">
         <v>121.742312183729</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" s="1">
         <v>43730</v>
       </c>
-      <c r="B142">
+      <c r="C142">
         <v>120.822301024428</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" s="1">
         <v>43733</v>
       </c>
-      <c r="B143">
+      <c r="C143">
         <v>122.265499290108</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" s="1">
         <v>43734</v>
       </c>
-      <c r="B144">
+      <c r="C144">
         <v>120.48635371179</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" s="1">
         <v>43735</v>
       </c>
-      <c r="B145">
+      <c r="C145">
         <v>121.070880361173</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" s="1">
         <v>43736</v>
       </c>
-      <c r="B146">
+      <c r="C146">
         <v>121.510368176047</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" s="1">
         <v>43737</v>
       </c>
-      <c r="B147">
+      <c r="C147">
         <v>121.313024443633</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148" s="1">
         <v>43740</v>
       </c>
-      <c r="B148">
+      <c r="C148">
         <v>121.453793774319</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" s="1">
         <v>43741</v>
       </c>
-      <c r="B149">
+      <c r="C149">
         <v>119.913520097442</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" s="1">
         <v>43742</v>
       </c>
-      <c r="B150">
+      <c r="C150">
         <v>120.88525865422</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>3</v>
+      </c>
+      <c r="B151" s="1">
         <v>43743</v>
       </c>
-      <c r="B151">
+      <c r="C151">
         <v>120.91087876524701</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" s="1">
         <v>43744</v>
       </c>
-      <c r="B152">
+      <c r="C152">
         <v>120.491242702251</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" s="1">
         <v>43748</v>
       </c>
-      <c r="B153">
+      <c r="C153">
         <v>120.16656822209001</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154" s="1">
         <v>43749</v>
       </c>
-      <c r="B154">
+      <c r="C154">
         <v>120.261047463175</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" s="1">
         <v>43750</v>
       </c>
-      <c r="B155">
+      <c r="C155">
         <v>120.26257171785301</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>3</v>
+      </c>
+      <c r="B156" s="1">
         <v>43751</v>
       </c>
-      <c r="B156">
+      <c r="C156">
         <v>120.14411664971099</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" s="1">
         <v>43752</v>
       </c>
-      <c r="B157">
+      <c r="C157">
         <v>119.93125000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" s="1">
         <v>43754</v>
       </c>
-      <c r="B158">
+      <c r="C158">
         <v>120.796680497925</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159" s="1">
         <v>43756</v>
       </c>
-      <c r="B159">
+      <c r="C159">
         <v>120.97991234477701</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160" s="1">
         <v>43757</v>
       </c>
-      <c r="B160">
+      <c r="C160">
         <v>120.481392143349</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>3</v>
+      </c>
+      <c r="B161" s="1">
         <v>43758</v>
       </c>
-      <c r="B161">
+      <c r="C161">
         <v>121.13102349661401</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>3</v>
+      </c>
+      <c r="B162" s="1">
         <v>43761</v>
       </c>
-      <c r="B162">
+      <c r="C162">
         <v>119.712246431254</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163" s="1">
         <v>43762</v>
       </c>
-      <c r="B163">
+      <c r="C163">
         <v>120.005640612409</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="1">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>3</v>
+      </c>
+      <c r="B164" s="1">
         <v>43763</v>
       </c>
-      <c r="B164">
+      <c r="C164">
         <v>120.22447058823499</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>3</v>
+      </c>
+      <c r="B165" s="1">
         <v>43764</v>
       </c>
-      <c r="B165">
+      <c r="C165">
         <v>120.94292312768</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166" s="1">
         <v>43765</v>
       </c>
-      <c r="B166">
+      <c r="C166">
         <v>119</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>3</v>
+      </c>
+      <c r="B167" s="1">
         <v>43772</v>
       </c>
-      <c r="B167">
+      <c r="C167">
         <v>120.18247456514599</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>3</v>
+      </c>
+      <c r="B168" s="1">
         <v>43776</v>
       </c>
-      <c r="B168">
+      <c r="C168">
         <v>121.59114315139</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>3</v>
+      </c>
+      <c r="B169" s="1">
         <v>43777</v>
       </c>
-      <c r="B169">
+      <c r="C169">
         <v>120.70038910505799</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170" s="1">
         <v>43778</v>
       </c>
-      <c r="B170">
+      <c r="C170">
         <v>120.708040593286</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="1">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>3</v>
+      </c>
+      <c r="B171" s="1">
         <v>43779</v>
       </c>
-      <c r="B171">
+      <c r="C171">
         <v>120.21552769915</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="1">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>3</v>
+      </c>
+      <c r="B172" s="1">
         <v>43780</v>
       </c>
-      <c r="B172">
+      <c r="C172">
         <v>121.345898778359</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173" s="1">
         <v>43783</v>
       </c>
-      <c r="B173">
+      <c r="C173">
         <v>119.539912917271</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>3</v>
+      </c>
+      <c r="B174" s="1">
         <v>43784</v>
       </c>
-      <c r="B174">
+      <c r="C174">
         <v>120.236293683873</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>3</v>
+      </c>
+      <c r="B175" s="1">
         <v>43785</v>
       </c>
-      <c r="B175">
+      <c r="C175">
         <v>119.961656441717</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>3</v>
+      </c>
+      <c r="B176" s="1">
         <v>43786</v>
       </c>
-      <c r="B176">
+      <c r="C176">
         <v>120.411023160363</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177" s="1">
         <v>43789</v>
       </c>
-      <c r="B177">
+      <c r="C177">
         <v>121.192596298149</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>3</v>
+      </c>
+      <c r="B178" s="1">
         <v>43790</v>
       </c>
-      <c r="B178">
+      <c r="C178">
         <v>122.158894645941</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>3</v>
+      </c>
+      <c r="B179" s="1">
         <v>43791</v>
       </c>
-      <c r="B179">
+      <c r="C179">
         <v>121.38266978922699</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>3</v>
+      </c>
+      <c r="B180" s="1">
         <v>43792</v>
       </c>
-      <c r="B180">
+      <c r="C180">
         <v>120.911919191919</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>3</v>
+      </c>
+      <c r="B181" s="1">
         <v>43793</v>
       </c>
-      <c r="B181">
+      <c r="C181">
         <v>121.155327342747</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>3</v>
+      </c>
+      <c r="B182" s="1">
         <v>43796</v>
       </c>
-      <c r="B182">
+      <c r="C182">
         <v>120.716506630086</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>3</v>
+      </c>
+      <c r="B183" s="1">
         <v>43798</v>
       </c>
-      <c r="B183">
+      <c r="C183">
         <v>120.742477256822</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>3</v>
+      </c>
+      <c r="B184" s="1">
         <v>43804</v>
       </c>
-      <c r="B184">
+      <c r="C184">
         <v>121.207540263543</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>3</v>
+      </c>
+      <c r="B185" s="1">
         <v>43805</v>
       </c>
-      <c r="B185">
+      <c r="C185">
         <v>120.356265356265</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>3</v>
+      </c>
+      <c r="B186" s="1">
         <v>43806</v>
       </c>
-      <c r="B186">
+      <c r="C186">
         <v>119.083017768715</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>3</v>
+      </c>
+      <c r="B187" s="1">
         <v>43807</v>
       </c>
-      <c r="B187">
+      <c r="C187">
         <v>121.295043536503</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>3</v>
+      </c>
+      <c r="B188" s="1">
         <v>43811</v>
       </c>
-      <c r="B188">
+      <c r="C188">
         <v>119.236245954692</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>3</v>
+      </c>
+      <c r="B189" s="1">
         <v>43812</v>
       </c>
-      <c r="B189">
+      <c r="C189">
         <v>120.740617180984</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>3</v>
+      </c>
+      <c r="B190" s="1">
         <v>43813</v>
       </c>
-      <c r="B190">
+      <c r="C190">
         <v>121.14324324324301</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>3</v>
+      </c>
+      <c r="B191" s="1">
         <v>43814</v>
       </c>
-      <c r="B191">
+      <c r="C191">
         <v>120.90078418002</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>3</v>
+      </c>
+      <c r="B192" s="1">
         <v>43827</v>
       </c>
-      <c r="B192">
+      <c r="C192">
         <v>120.38012170385301</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>3</v>
+      </c>
+      <c r="B193" s="1">
         <v>43828</v>
       </c>
-      <c r="B193">
+      <c r="C193">
         <v>120.685920577617</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>3</v>
+      </c>
+      <c r="B194" s="1">
         <v>43829</v>
       </c>
-      <c r="B194">
+      <c r="C194">
         <v>120.74567788898899</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>3</v>
+      </c>
+      <c r="B195" s="1">
         <v>43830</v>
       </c>
-      <c r="B195">
+      <c r="C195">
         <v>120.199066874027</v>
       </c>
     </row>
